--- a/국제가스및석유_환율조사/Data/Config.xlsx
+++ b/국제가스및석유_환율조사/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\TIL2022\대구가스공사_미니프로젝트\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\OneDrive\문서\TIL2022\국제가스및석유_환율조사\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EE938-570D-47D7-87B7-D53DC07F0CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88090BB2-AE9E-4E72-9D18-1E198EE02BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,15 +283,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Date\Input\</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>output_loacation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Date\Output\</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -315,6 +307,14 @@
       </rPr>
       <t>_URL</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Output\</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Input\</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -719,7 +719,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -800,7 +800,7 @@
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>45</v>
@@ -871,21 +871,21 @@
         <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
